--- a/oOZz/evidence.xlsx
+++ b/oOZz/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75749C44-EEA6-4B6C-9895-62AE256344C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B203D03-B3BC-4EC5-9C60-E4765B457F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3630" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>TeamName</t>
   </si>
@@ -100,33 +100,15 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
     <t>nft id</t>
   </si>
   <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
     <t>ibc class on chain</t>
   </si>
   <si>
@@ -144,11 +126,53 @@
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
+  <si>
+    <t>01D4A7700657EA4F0447A1215A197C078E52C0DDCD7E8EAC8A159011EB5B93C1</t>
+  </si>
+  <si>
+    <t>oozznft1</t>
+  </si>
+  <si>
+    <t>90DF806B587BC276C0E0D0B8178C77171C08279F479BEE7837B362055D079292</t>
+  </si>
+  <si>
+    <t>oozz01</t>
+  </si>
+  <si>
+    <t>8860890E966B4CEC4B2E579130A012307858BEEED7531BD4B344FCA8543252FD</t>
+  </si>
+  <si>
+    <t>oozz02</t>
+  </si>
+  <si>
+    <t>juno15nazpsqf9fdx0mszpsu2rtk2kz89pmv6tq5ar8fy95pntaq2n0js7s6ste</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>11CF28B4963F7B1D4D68E95AC1E23CEBE560482A32134BFDC39C9DA2160BB08A</t>
+  </si>
+  <si>
+    <t>ibc/DDD837675C6DF47D190C99C31FBFCDFCE3EEC47B3241AB127A8190F519E77912</t>
+  </si>
+  <si>
+    <t>085972DD03015C54759DFE112E50A64010E0816B995A112CC60AD5CB3C5C0294</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>D6A1273305B0B40C0C2D7B611E14E63373D8FF39B9DE7A237AB22D073A390E57</t>
+  </si>
+  <si>
+    <t>E0E751EE4A04D0C3FF92465993851631AFF1C0A49E5AAB097926EFC7CB68A9D8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -221,11 +245,10 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -235,9 +258,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,72 +641,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="3"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -697,7 +721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -706,25 +730,25 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -733,7 +757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -742,25 +766,25 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -769,7 +793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -778,25 +802,25 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -805,7 +829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -814,25 +838,25 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -841,7 +865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -850,33 +874,33 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
+      <c r="A4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -896,33 +920,33 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
+      <c r="A4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -942,33 +966,33 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
+      <c r="A4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +1003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -988,33 +1012,33 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
+      <c r="A4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1034,33 +1058,33 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
+      <c r="A4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1080,69 +1104,72 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -1152,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1161,33 +1188,33 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
+      <c r="A4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1207,66 +1234,223 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1277,190 +1461,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18" style="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="3"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1471,45 +1514,48 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18" style="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="3"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1520,45 +1566,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18" style="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="3"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1569,46 +1618,48 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1628,25 +1679,25 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1655,7 +1706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1664,25 +1715,25 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="3"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
